--- a/biology/Microbiologie/Discophryidae/Discophryidae.xlsx
+++ b/biology/Microbiologie/Discophryidae/Discophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Discophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Discophrya, formé du préfixe disco, « disque », et du grec οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié (en forme de) disque ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Discophryidae ont une taille, petite à moyenne. Leur trophonte (stade adulte strictement parasitaire) a un un corps aplati en forme de disque, rarement en forme de sac. Ils sont avec ou sans tige et sont dépourvus de lorica (loge). Leurs tentacules sont capités, soit en faisceaux, soit uniformément répartis sur le corps cellulaire. L'essaim est généralement grand, ovoïde aplati ou allongé, avec des kinés somatiques généralement marginales. Leur macronoyau est ellipsoïde, rubané ou ramifié. Un micronoyau est présent. Ils ont, généralement, de multiples vacuoles contractiles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Discophryidae ont une taille, petite à moyenne. Leur trophonte (stade adulte strictement parasitaire) a un un corps aplati en forme de disque, rarement en forme de sac. Ils sont avec ou sans tige et sont dépourvus de lorica (loge). Leurs tentacules sont capités, soit en faisceaux, soit uniformément répartis sur le corps cellulaire. L'essaim est généralement grand, ovoïde aplati ou allongé, avec des kinés somatiques généralement marginales. Leur macronoyau est ellipsoïde, rubané ou ramifié. Un micronoyau est présent. Ils ont, généralement, de multiples vacuoles contractiles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Discophryidae vivent dans des habitats d'eau douce, dans le périphyton, mais de nombreuses espèces sont ectocommensales sur les crustacés adultes et les formes larvaires d'insectes aquatiques[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Discophryidae vivent dans des habitats d'eau douce, dans le périphyton, mais de nombreuses espèces sont ectocommensales sur les crustacés adultes et les formes larvaires d'insectes aquatiques.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 juillet 2023) :
 Cyclophrya Gönnert, 1935
 Dactylostoma Jankowski, 1967
 Discophrya Lachmann, 1859 genre type
@@ -617,7 +637,7 @@
 Peridiscophrya Nozawa, 1938
 Prodiscophrya Kormos, 1935
 Pseudogemmides Kormos, 1935
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Discophrya Lachmann, 1859
 Misacineta Jankowski, 1978 (synonyme de Discophrya)
 Multifasciculatum Goodrich &amp; Jahn, 1943
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Discophryidae Collin, 1912[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Discophryidae Collin, 1912.
 </t>
         </is>
       </c>
